--- a/learning_summaries.xlsx
+++ b/learning_summaries.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Learning Summary" r:id="rId3" sheetId="1"/>
+    <sheet name="Japanese Vocabulary" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>Day</t>
   </si>
@@ -45,6 +46,294 @@
   </si>
   <si>
     <t>Focus on consistent practice for writing, reading, and pronunciation of each character. Mastering Hiragana is your essential first step to reading and writing Japanese.</t>
+  </si>
+  <si>
+    <t>Hiragana 2</t>
+  </si>
+  <si>
+    <t>Today's lesson introduced three new Hiragana characters: え (e), お (o), and か (ka). We practiced their pronunciation, writing strokes, and learned two example words for each, building foundational Japanese reading and writing skills.</t>
+  </si>
+  <si>
+    <t>えき (eki) - station, おとこ (otoko) - man, かさ (kasa) - umbrella</t>
+  </si>
+  <si>
+    <t>Consistent practice of writing and saying each Hiragana character and their example words aloud is key. Pay attention to the correct stroke order and the distinct small dashes on お and か.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Word (Kanji)</t>
+  </si>
+  <si>
+    <t>Word (Kana)</t>
+  </si>
+  <si>
+    <t>Romaji</t>
+  </si>
+  <si>
+    <t>Part of Speech</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Example Sentence (JP)</t>
+  </si>
+  <si>
+    <t>Example Sentence (EN)</t>
+  </si>
+  <si>
+    <t>Collocations</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Confusable Words</t>
+  </si>
+  <si>
+    <t>こんにちは</t>
+  </si>
+  <si>
+    <t>Konnichiwa</t>
+  </si>
+  <si>
+    <t>greeting</t>
+  </si>
+  <si>
+    <t>Hello, Good afternoon</t>
+  </si>
+  <si>
+    <t>Xin chào, Chào buổi chiều</t>
+  </si>
+  <si>
+    <t>こんにちは！お元気ですか？</t>
+  </si>
+  <si>
+    <t>Hello! How are you?</t>
+  </si>
+  <si>
+    <t>なし (none)</t>
+  </si>
+  <si>
+    <t>こんばんは (Konbanwa - Good evening), おはようございます (Ohayou gozaimasu - Good morning)</t>
+  </si>
+  <si>
+    <t>A very common daily greeting in Japan. Used from late morning to late afternoon.</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>えき</t>
+  </si>
+  <si>
+    <t>eki</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>nhà ga</t>
+  </si>
+  <si>
+    <t>ここは駅です。</t>
+  </si>
+  <si>
+    <t>This is a station.</t>
+  </si>
+  <si>
+    <t>駅員 (ekiin - station attendant), 駅に行く (eki ni iku - go to the station)</t>
+  </si>
+  <si>
+    <t>えん (en - yen, circle) - similar initial sound.</t>
+  </si>
+  <si>
+    <t>An essential word for understanding directions and transportation in Japan.</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>yen (Japanese currency), circle</t>
+  </si>
+  <si>
+    <t>yên (tiền Nhật), hình tròn</t>
+  </si>
+  <si>
+    <t>１００円です。</t>
+  </si>
+  <si>
+    <t>It's 100 yen.</t>
+  </si>
+  <si>
+    <t>日本円 (Nihon en - Japanese yen), １００円玉 (hyaku-en dama - 100 yen coin)</t>
+  </si>
+  <si>
+    <t>えき (eki - station) - similar initial sound.</t>
+  </si>
+  <si>
+    <t>The basic unit of Japanese currency. Also means 'circle' or 'round'.</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>otoko</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>đàn ông</t>
+  </si>
+  <si>
+    <t>彼はおとこです。</t>
+  </si>
+  <si>
+    <t>He is a man.</t>
+  </si>
+  <si>
+    <t>男の子 (otokonoko - boy), 男の人 (otoko no hito - man, male person)</t>
+  </si>
+  <si>
+    <t>男性 (dansei - male, man; slightly more formal)</t>
+  </si>
+  <si>
+    <t>女 (onna - woman)</t>
+  </si>
+  <si>
+    <t>Refers to an adult male. Often used in contrast with 'onna' (woman).</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>おかね</t>
+  </si>
+  <si>
+    <t>okane</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>tiền</t>
+  </si>
+  <si>
+    <t>お金があります。</t>
+  </si>
+  <si>
+    <t>I have money.</t>
+  </si>
+  <si>
+    <t>お金を払う (okane o harau - to pay money), お金持ち (okanemochi - rich person)</t>
+  </si>
+  <si>
+    <t>The 'o' prefix adds a polite or respectful nuance, common with certain nouns.</t>
+  </si>
+  <si>
+    <t>傘</t>
+  </si>
+  <si>
+    <t>かさ</t>
+  </si>
+  <si>
+    <t>kasa</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>cái ô, cái dù</t>
+  </si>
+  <si>
+    <t>これは私のかさです。</t>
+  </si>
+  <si>
+    <t>This is my umbrella.</t>
+  </si>
+  <si>
+    <t>かさを持つ (kasa o motsu - to hold an umbrella), 雨が降るとかさが必要 (ame ga furu to kasa ga hitsuyou - when it rains, an umbrella is necessary)</t>
+  </si>
+  <si>
+    <t>A practical word, especially useful during Japan's rainy season.</t>
+  </si>
+  <si>
+    <t>顔</t>
+  </si>
+  <si>
+    <t>かお</t>
+  </si>
+  <si>
+    <t>kao</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>khuôn mặt</t>
+  </si>
+  <si>
+    <t>彼の顔は小さい。</t>
+  </si>
+  <si>
+    <t>His face is small.</t>
+  </si>
+  <si>
+    <t>顔を洗う (kao o arau - to wash one's face), 顔色 (kao-iro - complexion)</t>
+  </si>
+  <si>
+    <t>A basic body part. Can be used in many expressions related to appearance or emotion.</t>
+  </si>
+  <si>
+    <t>頑張ってください</t>
+  </si>
+  <si>
+    <t>がんばってください</t>
+  </si>
+  <si>
+    <t>Ganbatte kudasai</t>
+  </si>
+  <si>
+    <t>phrase (expression)</t>
+  </si>
+  <si>
+    <t>Please do your best!, Good luck!</t>
+  </si>
+  <si>
+    <t>Hãy cố gắng hết sức!, Chúc may mắn!</t>
+  </si>
+  <si>
+    <t>試験、がんばってください！</t>
+  </si>
+  <si>
+    <t>Good luck with your exam! (Please do your best for the exam!)</t>
+  </si>
+  <si>
+    <t>がんばる (ganbaru - to do one's best), がんばれ (ganbare - Go for it! - informal)</t>
+  </si>
+  <si>
+    <t>応援しています (ōen shiteimasu - I'm cheering for you)</t>
+  </si>
+  <si>
+    <t>A very common and encouraging phrase. `ください` (kudasai) makes it a polite request.</t>
   </si>
 </sst>
 </file>
@@ -52,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -63,6 +352,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -86,10 +380,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment wrapText="true" vertical="top"/>
@@ -100,18 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="5.859375" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="27.34375" customWidth="true"/>
-    <col min="5" max="5" width="23.4375" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="5.859375"/>
+    <col min="2" max="2" customWidth="true" width="11.71875"/>
+    <col min="3" max="3" customWidth="true" width="15.625"/>
+    <col min="4" max="4" customWidth="true" width="27.34375"/>
+    <col min="5" max="5" customWidth="true" width="23.4375"/>
+    <col min="6" max="6" customWidth="true" width="15.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -154,6 +478,423 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="3.90625" customWidth="true"/>
+    <col min="2" max="2" width="11.71875" customWidth="true"/>
+    <col min="3" max="3" width="11.71875" customWidth="true"/>
+    <col min="4" max="4" width="9.765625" customWidth="true"/>
+    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="7" max="7" width="11.71875" customWidth="true"/>
+    <col min="8" max="8" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="19.53125" customWidth="true"/>
+    <col min="10" max="10" width="15.625" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="15.625" customWidth="true"/>
+    <col min="13" max="13" width="11.71875" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s" s="4">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s" s="4">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s" s="5">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="L4" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s" s="8">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s" s="8">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s" s="8">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s" s="8">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s" s="8">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s" s="8">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s" s="8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s" s="9">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="9">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s" s="9">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s" s="9">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="9">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s" s="10">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s" s="10">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s" s="11">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="12">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="I9" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s" s="12">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s" s="12">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s" s="12">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
